--- a/Data/MyData.xlsx
+++ b/Data/MyData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\CucumberPOM-Aug22\Selenium9PMMay23\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB21C57-6CD8-4BC0-B60F-7A758364D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEB7557-4DE1-4687-B4E9-10727CEB27B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF09F585-DBE8-4BC7-B853-B14C28F6282C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DF09F585-DBE8-4BC7-B853-B14C28F6282C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Add customer" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>tomsmith</t>
   </si>
@@ -55,6 +56,54 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Seema</t>
+  </si>
+  <si>
+    <t>Nisha</t>
+  </si>
+  <si>
+    <t>Vanita</t>
+  </si>
+  <si>
+    <t>Lavanya</t>
+  </si>
+  <si>
+    <t>Sumit</t>
+  </si>
+  <si>
+    <t>Jagruti</t>
+  </si>
+  <si>
+    <t>xyz1</t>
+  </si>
+  <si>
+    <t>xyz2</t>
+  </si>
+  <si>
+    <t>xyz3</t>
+  </si>
+  <si>
+    <t>xyz4</t>
+  </si>
+  <si>
+    <t>xyz5</t>
+  </si>
+  <si>
+    <t>xyz6</t>
+  </si>
+  <si>
+    <t>contact1</t>
+  </si>
+  <si>
+    <t>contact2</t>
   </si>
 </sst>
 </file>
@@ -417,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EC8792-96FA-4D16-B111-F9603D152A89}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -468,4 +517,117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8521A4D9-22A1-4CC9-8433-4C0463AE3246}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1111111</v>
+      </c>
+      <c r="D2">
+        <v>222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1111111</v>
+      </c>
+      <c r="D3">
+        <v>222222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1111111</v>
+      </c>
+      <c r="D4">
+        <v>222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>1111111</v>
+      </c>
+      <c r="D5">
+        <v>222222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>1111111</v>
+      </c>
+      <c r="D6">
+        <v>222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>1111111</v>
+      </c>
+      <c r="D7">
+        <v>222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>